--- a/DS PORTAL.xlsx
+++ b/DS PORTAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PERSONAL INFORMATION" sheetId="1" state="visible" r:id="rId3"/>
@@ -18663,7 +18663,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="327" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="21" t="s">
         <v>877</v>
       </c>
@@ -18710,7 +18710,7 @@
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
     </row>
-    <row r="328" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="21" t="s">
         <v>879</v>
       </c>
@@ -18757,7 +18757,7 @@
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
     </row>
-    <row r="329" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="21" t="s">
         <v>881</v>
       </c>
@@ -18804,7 +18804,7 @@
       <c r="P329" s="1"/>
       <c r="Q329" s="1"/>
     </row>
-    <row r="330" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="21" t="s">
         <v>883</v>
       </c>
@@ -18851,7 +18851,7 @@
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
     </row>
-    <row r="331" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="21" t="s">
         <v>886</v>
       </c>
@@ -18898,7 +18898,7 @@
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
     </row>
-    <row r="332" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="21" t="s">
         <v>889</v>
       </c>
@@ -18945,7 +18945,7 @@
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
     </row>
-    <row r="333" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="21" t="s">
         <v>892</v>
       </c>
@@ -18992,7 +18992,7 @@
       <c r="P333" s="1"/>
       <c r="Q333" s="1"/>
     </row>
-    <row r="334" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="21" t="s">
         <v>895</v>
       </c>
@@ -19039,7 +19039,7 @@
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
     </row>
-    <row r="335" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="21" t="s">
         <v>898</v>
       </c>
@@ -19086,7 +19086,7 @@
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
     </row>
-    <row r="336" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="21" t="s">
         <v>901</v>
       </c>
@@ -19133,7 +19133,7 @@
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
     </row>
-    <row r="337" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="21" t="s">
         <v>905</v>
       </c>
@@ -19180,7 +19180,7 @@
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
     </row>
-    <row r="338" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="21" t="s">
         <v>909</v>
       </c>
@@ -19227,7 +19227,7 @@
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
     </row>
-    <row r="339" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="21" t="s">
         <v>912</v>
       </c>
@@ -19274,7 +19274,7 @@
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
     </row>
-    <row r="340" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="21" t="s">
         <v>915</v>
       </c>
@@ -19321,7 +19321,7 @@
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
     </row>
-    <row r="341" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="21" t="s">
         <v>918</v>
       </c>
@@ -19368,7 +19368,7 @@
       <c r="P341" s="1"/>
       <c r="Q341" s="1"/>
     </row>
-    <row r="342" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="21" t="s">
         <v>920</v>
       </c>
@@ -19415,7 +19415,7 @@
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
     </row>
-    <row r="343" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="21" t="s">
         <v>923</v>
       </c>
@@ -19462,7 +19462,7 @@
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
     </row>
-    <row r="344" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="21" t="s">
         <v>926</v>
       </c>
@@ -19509,7 +19509,7 @@
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
     </row>
-    <row r="345" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="21" t="s">
         <v>929</v>
       </c>
@@ -19556,7 +19556,7 @@
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
     </row>
-    <row r="346" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="21" t="s">
         <v>929</v>
       </c>
@@ -19603,7 +19603,7 @@
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
     </row>
-    <row r="347" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="21" t="s">
         <v>933</v>
       </c>
@@ -19650,7 +19650,7 @@
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
     </row>
-    <row r="348" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="21" t="s">
         <v>935</v>
       </c>
@@ -19697,7 +19697,7 @@
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
     </row>
-    <row r="349" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="21" t="s">
         <v>937</v>
       </c>
@@ -19744,7 +19744,7 @@
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
     </row>
-    <row r="350" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="21" t="s">
         <v>940</v>
       </c>
@@ -19791,7 +19791,7 @@
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
     </row>
-    <row r="351" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="21" t="s">
         <v>571</v>
       </c>
@@ -19838,7 +19838,7 @@
       <c r="P351" s="1"/>
       <c r="Q351" s="1"/>
     </row>
-    <row r="352" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="21" t="s">
         <v>944</v>
       </c>
@@ -19885,7 +19885,7 @@
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
     </row>
-    <row r="353" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="21" t="s">
         <v>946</v>
       </c>
@@ -19932,7 +19932,7 @@
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
     </row>
-    <row r="354" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="21" t="s">
         <v>948</v>
       </c>
@@ -19979,7 +19979,7 @@
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
     </row>
-    <row r="355" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="21" t="s">
         <v>951</v>
       </c>
@@ -20026,7 +20026,7 @@
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
     </row>
-    <row r="356" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="21" t="s">
         <v>954</v>
       </c>
@@ -20073,7 +20073,7 @@
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
     </row>
-    <row r="357" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="21" t="s">
         <v>957</v>
       </c>
@@ -20120,7 +20120,7 @@
       <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
     </row>
-    <row r="358" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="21" t="s">
         <v>960</v>
       </c>
@@ -20167,7 +20167,7 @@
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
     </row>
-    <row r="359" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="21" t="s">
         <v>963</v>
       </c>
@@ -20214,7 +20214,7 @@
       <c r="P359" s="1"/>
       <c r="Q359" s="1"/>
     </row>
-    <row r="360" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="21" t="s">
         <v>966</v>
       </c>
@@ -20261,7 +20261,7 @@
       <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
     </row>
-    <row r="361" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="21" t="s">
         <v>968</v>
       </c>
@@ -20308,7 +20308,7 @@
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
     </row>
-    <row r="362" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="21" t="s">
         <v>971</v>
       </c>
@@ -20355,7 +20355,7 @@
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
     </row>
-    <row r="363" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="21" t="s">
         <v>973</v>
       </c>
@@ -20402,7 +20402,7 @@
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
     </row>
-    <row r="364" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="21" t="s">
         <v>976</v>
       </c>
@@ -20449,7 +20449,7 @@
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
     </row>
-    <row r="365" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="21" t="s">
         <v>978</v>
       </c>
@@ -20496,7 +20496,7 @@
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
     </row>
-    <row r="366" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="21" t="s">
         <v>980</v>
       </c>
@@ -20543,7 +20543,7 @@
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
     </row>
-    <row r="367" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="21" t="s">
         <v>982</v>
       </c>
@@ -20590,7 +20590,7 @@
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
     </row>
-    <row r="368" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="21" t="s">
         <v>984</v>
       </c>
@@ -20637,7 +20637,7 @@
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
     </row>
-    <row r="369" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="21" t="s">
         <v>986</v>
       </c>
@@ -20684,7 +20684,7 @@
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
     </row>
-    <row r="370" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="21" t="s">
         <v>989</v>
       </c>
@@ -20731,7 +20731,7 @@
       <c r="P370" s="1"/>
       <c r="Q370" s="1"/>
     </row>
-    <row r="371" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="21" t="s">
         <v>991</v>
       </c>
@@ -20778,7 +20778,7 @@
       <c r="P371" s="1"/>
       <c r="Q371" s="1"/>
     </row>
-    <row r="372" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="21" t="s">
         <v>994</v>
       </c>
@@ -20825,7 +20825,7 @@
       <c r="P372" s="1"/>
       <c r="Q372" s="1"/>
     </row>
-    <row r="373" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="21" t="s">
         <v>997</v>
       </c>
@@ -20872,7 +20872,7 @@
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
     </row>
-    <row r="374" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="21" t="s">
         <v>999</v>
       </c>
@@ -20919,7 +20919,7 @@
       <c r="P374" s="1"/>
       <c r="Q374" s="1"/>
     </row>
-    <row r="375" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="21" t="s">
         <v>1001</v>
       </c>
@@ -20966,7 +20966,7 @@
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
     </row>
-    <row r="376" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="21" t="s">
         <v>1004</v>
       </c>
@@ -21013,7 +21013,7 @@
       <c r="P376" s="1"/>
       <c r="Q376" s="1"/>
     </row>
-    <row r="377" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="21" t="s">
         <v>1007</v>
       </c>
@@ -21060,7 +21060,7 @@
       <c r="P377" s="1"/>
       <c r="Q377" s="1"/>
     </row>
-    <row r="378" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="21" t="s">
         <v>1010</v>
       </c>
@@ -21107,7 +21107,7 @@
       <c r="P378" s="1"/>
       <c r="Q378" s="1"/>
     </row>
-    <row r="379" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="21" t="s">
         <v>1012</v>
       </c>
@@ -21154,7 +21154,7 @@
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
     </row>
-    <row r="380" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="21" t="s">
         <v>1016</v>
       </c>
@@ -21201,7 +21201,7 @@
       <c r="P380" s="1"/>
       <c r="Q380" s="1"/>
     </row>
-    <row r="381" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="21" t="s">
         <v>1018</v>
       </c>
@@ -21248,7 +21248,7 @@
       <c r="P381" s="1"/>
       <c r="Q381" s="1"/>
     </row>
-    <row r="382" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="21" t="s">
         <v>1020</v>
       </c>
@@ -21295,7 +21295,7 @@
       <c r="P382" s="1"/>
       <c r="Q382" s="1"/>
     </row>
-    <row r="383" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="21" t="s">
         <v>1022</v>
       </c>
@@ -21342,7 +21342,7 @@
       <c r="P383" s="1"/>
       <c r="Q383" s="1"/>
     </row>
-    <row r="384" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="21" t="s">
         <v>1024</v>
       </c>
@@ -21389,7 +21389,7 @@
       <c r="P384" s="1"/>
       <c r="Q384" s="1"/>
     </row>
-    <row r="385" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="21" t="s">
         <v>1026</v>
       </c>
@@ -21436,7 +21436,7 @@
       <c r="P385" s="1"/>
       <c r="Q385" s="1"/>
     </row>
-    <row r="386" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="21" t="s">
         <v>1028</v>
       </c>
@@ -21483,7 +21483,7 @@
       <c r="P386" s="1"/>
       <c r="Q386" s="1"/>
     </row>
-    <row r="387" s="23" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="21" t="s">
         <v>1030</v>
       </c>
@@ -21573,8 +21573,8 @@
       <c r="N389" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R389" s="0"/>
-      <c r="S389" s="0"/>
+      <c r="R389" s="23"/>
+      <c r="S389" s="23"/>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="21" t="s">
@@ -21619,8 +21619,8 @@
       <c r="N390" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R390" s="0"/>
-      <c r="S390" s="0"/>
+      <c r="R390" s="23"/>
+      <c r="S390" s="23"/>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="21" t="s">
@@ -21665,8 +21665,8 @@
       <c r="N391" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R391" s="0"/>
-      <c r="S391" s="0"/>
+      <c r="R391" s="23"/>
+      <c r="S391" s="23"/>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="21" t="s">
@@ -21711,8 +21711,8 @@
       <c r="N392" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R392" s="0"/>
-      <c r="S392" s="0"/>
+      <c r="R392" s="23"/>
+      <c r="S392" s="23"/>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="21" t="s">
@@ -21757,8 +21757,8 @@
       <c r="N393" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R393" s="0"/>
-      <c r="S393" s="0"/>
+      <c r="R393" s="23"/>
+      <c r="S393" s="23"/>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="21" t="s">
@@ -21803,8 +21803,8 @@
       <c r="N394" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R394" s="0"/>
-      <c r="S394" s="0"/>
+      <c r="R394" s="23"/>
+      <c r="S394" s="23"/>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="21" t="s">
@@ -21849,8 +21849,8 @@
       <c r="N395" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R395" s="0"/>
-      <c r="S395" s="0"/>
+      <c r="R395" s="23"/>
+      <c r="S395" s="23"/>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="21" t="s">
@@ -21895,8 +21895,8 @@
       <c r="N396" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R396" s="0"/>
-      <c r="S396" s="0"/>
+      <c r="R396" s="23"/>
+      <c r="S396" s="23"/>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="21" t="s">
@@ -21941,8 +21941,8 @@
       <c r="N397" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R397" s="0"/>
-      <c r="S397" s="0"/>
+      <c r="R397" s="23"/>
+      <c r="S397" s="23"/>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="21" t="s">
@@ -21987,8 +21987,8 @@
       <c r="N398" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R398" s="0"/>
-      <c r="S398" s="0"/>
+      <c r="R398" s="23"/>
+      <c r="S398" s="23"/>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="21" t="s">
@@ -22033,8 +22033,8 @@
       <c r="N399" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R399" s="0"/>
-      <c r="S399" s="0"/>
+      <c r="R399" s="23"/>
+      <c r="S399" s="23"/>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="21" t="s">
@@ -22079,8 +22079,8 @@
       <c r="N400" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R400" s="0"/>
-      <c r="S400" s="0"/>
+      <c r="R400" s="23"/>
+      <c r="S400" s="23"/>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="21" t="s">
@@ -22125,8 +22125,8 @@
       <c r="N401" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R401" s="0"/>
-      <c r="S401" s="0"/>
+      <c r="R401" s="23"/>
+      <c r="S401" s="23"/>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="21" t="s">
@@ -22171,8 +22171,8 @@
       <c r="N402" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R402" s="0"/>
-      <c r="S402" s="0"/>
+      <c r="R402" s="23"/>
+      <c r="S402" s="23"/>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="21" t="s">
@@ -22217,8 +22217,8 @@
       <c r="N403" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R403" s="0"/>
-      <c r="S403" s="0"/>
+      <c r="R403" s="23"/>
+      <c r="S403" s="23"/>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="21" t="s">
@@ -22263,8 +22263,8 @@
       <c r="N404" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R404" s="0"/>
-      <c r="S404" s="0"/>
+      <c r="R404" s="23"/>
+      <c r="S404" s="23"/>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="21" t="s">
@@ -22309,8 +22309,8 @@
       <c r="N405" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R405" s="0"/>
-      <c r="S405" s="0"/>
+      <c r="R405" s="23"/>
+      <c r="S405" s="23"/>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="21" t="s">
@@ -22355,8 +22355,8 @@
       <c r="N406" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R406" s="0"/>
-      <c r="S406" s="0"/>
+      <c r="R406" s="23"/>
+      <c r="S406" s="23"/>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="21" t="s">
@@ -22401,8 +22401,8 @@
       <c r="N407" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R407" s="0"/>
-      <c r="S407" s="0"/>
+      <c r="R407" s="23"/>
+      <c r="S407" s="23"/>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="21" t="s">
@@ -22447,8 +22447,8 @@
       <c r="N408" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R408" s="0"/>
-      <c r="S408" s="0"/>
+      <c r="R408" s="23"/>
+      <c r="S408" s="23"/>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="21" t="s">
@@ -22493,8 +22493,8 @@
       <c r="N409" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R409" s="0"/>
-      <c r="S409" s="0"/>
+      <c r="R409" s="23"/>
+      <c r="S409" s="23"/>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="21" t="s">
@@ -22539,8 +22539,8 @@
       <c r="N410" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R410" s="0"/>
-      <c r="S410" s="0"/>
+      <c r="R410" s="23"/>
+      <c r="S410" s="23"/>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="21" t="s">
@@ -22585,8 +22585,8 @@
       <c r="N411" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R411" s="0"/>
-      <c r="S411" s="0"/>
+      <c r="R411" s="23"/>
+      <c r="S411" s="23"/>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="21" t="s">
@@ -22631,8 +22631,8 @@
       <c r="N412" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R412" s="0"/>
-      <c r="S412" s="0"/>
+      <c r="R412" s="23"/>
+      <c r="S412" s="23"/>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="21" t="s">
@@ -22677,8 +22677,8 @@
       <c r="N413" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R413" s="0"/>
-      <c r="S413" s="0"/>
+      <c r="R413" s="23"/>
+      <c r="S413" s="23"/>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="21" t="s">
@@ -22723,8 +22723,8 @@
       <c r="N414" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R414" s="0"/>
-      <c r="S414" s="0"/>
+      <c r="R414" s="23"/>
+      <c r="S414" s="23"/>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="21" t="s">
@@ -22769,8 +22769,8 @@
       <c r="N415" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R415" s="0"/>
-      <c r="S415" s="0"/>
+      <c r="R415" s="23"/>
+      <c r="S415" s="23"/>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="21" t="s">
@@ -22815,8 +22815,8 @@
       <c r="N416" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R416" s="0"/>
-      <c r="S416" s="0"/>
+      <c r="R416" s="23"/>
+      <c r="S416" s="23"/>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="21" t="s">
@@ -22861,8 +22861,8 @@
       <c r="N417" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R417" s="0"/>
-      <c r="S417" s="0"/>
+      <c r="R417" s="23"/>
+      <c r="S417" s="23"/>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="21" t="s">
@@ -22907,8 +22907,8 @@
       <c r="N418" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R418" s="0"/>
-      <c r="S418" s="0"/>
+      <c r="R418" s="23"/>
+      <c r="S418" s="23"/>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="21" t="s">
@@ -22953,8 +22953,8 @@
       <c r="N419" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R419" s="0"/>
-      <c r="S419" s="0"/>
+      <c r="R419" s="23"/>
+      <c r="S419" s="23"/>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="21" t="s">
@@ -22999,8 +22999,8 @@
       <c r="N420" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R420" s="0"/>
-      <c r="S420" s="0"/>
+      <c r="R420" s="23"/>
+      <c r="S420" s="23"/>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="21" t="s">
@@ -23045,8 +23045,8 @@
       <c r="N421" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R421" s="0"/>
-      <c r="S421" s="0"/>
+      <c r="R421" s="23"/>
+      <c r="S421" s="23"/>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="21" t="s">
@@ -23091,8 +23091,8 @@
       <c r="N422" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R422" s="0"/>
-      <c r="S422" s="0"/>
+      <c r="R422" s="23"/>
+      <c r="S422" s="23"/>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="21" t="s">
@@ -23137,8 +23137,8 @@
       <c r="N423" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R423" s="0"/>
-      <c r="S423" s="0"/>
+      <c r="R423" s="23"/>
+      <c r="S423" s="23"/>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="21" t="s">
@@ -23183,8 +23183,8 @@
       <c r="N424" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R424" s="0"/>
-      <c r="S424" s="0"/>
+      <c r="R424" s="23"/>
+      <c r="S424" s="23"/>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="21" t="s">
@@ -23229,8 +23229,8 @@
       <c r="N425" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R425" s="0"/>
-      <c r="S425" s="0"/>
+      <c r="R425" s="23"/>
+      <c r="S425" s="23"/>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="21" t="s">
@@ -23275,8 +23275,8 @@
       <c r="N426" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R426" s="0"/>
-      <c r="S426" s="0"/>
+      <c r="R426" s="23"/>
+      <c r="S426" s="23"/>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="21" t="s">
@@ -23321,12 +23321,12 @@
       <c r="N427" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="R427" s="0"/>
-      <c r="S427" s="0"/>
+      <c r="R427" s="23"/>
+      <c r="S427" s="23"/>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R428" s="0"/>
-      <c r="S428" s="0"/>
+      <c r="R428" s="23"/>
+      <c r="S428" s="23"/>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="21" t="s">
@@ -23371,8 +23371,8 @@
       <c r="N429" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R429" s="0"/>
-      <c r="S429" s="0"/>
+      <c r="R429" s="23"/>
+      <c r="S429" s="23"/>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="21" t="s">
@@ -23417,8 +23417,8 @@
       <c r="N430" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R430" s="0"/>
-      <c r="S430" s="0"/>
+      <c r="R430" s="23"/>
+      <c r="S430" s="23"/>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="21" t="s">
@@ -23463,8 +23463,8 @@
       <c r="N431" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R431" s="0"/>
-      <c r="S431" s="0"/>
+      <c r="R431" s="23"/>
+      <c r="S431" s="23"/>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="21" t="s">
@@ -23509,8 +23509,8 @@
       <c r="N432" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R432" s="0"/>
-      <c r="S432" s="0"/>
+      <c r="R432" s="23"/>
+      <c r="S432" s="23"/>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="21" t="s">
@@ -23555,8 +23555,8 @@
       <c r="N433" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R433" s="0"/>
-      <c r="S433" s="0"/>
+      <c r="R433" s="23"/>
+      <c r="S433" s="23"/>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="21" t="s">
@@ -23601,8 +23601,8 @@
       <c r="N434" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R434" s="0"/>
-      <c r="S434" s="0"/>
+      <c r="R434" s="23"/>
+      <c r="S434" s="23"/>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="21" t="s">
@@ -23647,8 +23647,8 @@
       <c r="N435" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R435" s="0"/>
-      <c r="S435" s="0"/>
+      <c r="R435" s="23"/>
+      <c r="S435" s="23"/>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="21" t="s">
@@ -23693,8 +23693,8 @@
       <c r="N436" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R436" s="0"/>
-      <c r="S436" s="0"/>
+      <c r="R436" s="23"/>
+      <c r="S436" s="23"/>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="21" t="s">
@@ -23739,8 +23739,8 @@
       <c r="N437" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R437" s="0"/>
-      <c r="S437" s="0"/>
+      <c r="R437" s="23"/>
+      <c r="S437" s="23"/>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="21" t="s">
@@ -23785,8 +23785,8 @@
       <c r="N438" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R438" s="0"/>
-      <c r="S438" s="0"/>
+      <c r="R438" s="23"/>
+      <c r="S438" s="23"/>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="21" t="s">
@@ -23831,8 +23831,8 @@
       <c r="N439" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R439" s="0"/>
-      <c r="S439" s="0"/>
+      <c r="R439" s="23"/>
+      <c r="S439" s="23"/>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="21" t="s">
@@ -23877,8 +23877,8 @@
       <c r="N440" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R440" s="0"/>
-      <c r="S440" s="0"/>
+      <c r="R440" s="23"/>
+      <c r="S440" s="23"/>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="21" t="s">
@@ -23923,8 +23923,8 @@
       <c r="N441" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R441" s="0"/>
-      <c r="S441" s="0"/>
+      <c r="R441" s="23"/>
+      <c r="S441" s="23"/>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="21" t="s">
@@ -23969,8 +23969,8 @@
       <c r="N442" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R442" s="0"/>
-      <c r="S442" s="0"/>
+      <c r="R442" s="23"/>
+      <c r="S442" s="23"/>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="21" t="s">
@@ -24015,8 +24015,8 @@
       <c r="N443" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R443" s="0"/>
-      <c r="S443" s="0"/>
+      <c r="R443" s="23"/>
+      <c r="S443" s="23"/>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="21" t="s">
@@ -24061,8 +24061,8 @@
       <c r="N444" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R444" s="0"/>
-      <c r="S444" s="0"/>
+      <c r="R444" s="23"/>
+      <c r="S444" s="23"/>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="21" t="s">
@@ -24107,8 +24107,8 @@
       <c r="N445" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R445" s="0"/>
-      <c r="S445" s="0"/>
+      <c r="R445" s="23"/>
+      <c r="S445" s="23"/>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="21" t="s">
@@ -24153,8 +24153,8 @@
       <c r="N446" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R446" s="0"/>
-      <c r="S446" s="0"/>
+      <c r="R446" s="23"/>
+      <c r="S446" s="23"/>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="21" t="s">
@@ -24199,8 +24199,8 @@
       <c r="N447" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R447" s="0"/>
-      <c r="S447" s="0"/>
+      <c r="R447" s="23"/>
+      <c r="S447" s="23"/>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="21" t="s">
@@ -24245,8 +24245,8 @@
       <c r="N448" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R448" s="0"/>
-      <c r="S448" s="0"/>
+      <c r="R448" s="23"/>
+      <c r="S448" s="23"/>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="21" t="s">
@@ -24291,8 +24291,8 @@
       <c r="N449" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R449" s="0"/>
-      <c r="S449" s="0"/>
+      <c r="R449" s="23"/>
+      <c r="S449" s="23"/>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="21" t="s">
@@ -24337,8 +24337,8 @@
       <c r="N450" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R450" s="0"/>
-      <c r="S450" s="0"/>
+      <c r="R450" s="23"/>
+      <c r="S450" s="23"/>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="21" t="s">
@@ -24383,8 +24383,8 @@
       <c r="N451" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R451" s="0"/>
-      <c r="S451" s="0"/>
+      <c r="R451" s="23"/>
+      <c r="S451" s="23"/>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="21" t="s">
@@ -24429,8 +24429,8 @@
       <c r="N452" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R452" s="0"/>
-      <c r="S452" s="0"/>
+      <c r="R452" s="23"/>
+      <c r="S452" s="23"/>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="21" t="s">
@@ -24475,8 +24475,8 @@
       <c r="N453" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R453" s="0"/>
-      <c r="S453" s="0"/>
+      <c r="R453" s="23"/>
+      <c r="S453" s="23"/>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="21" t="s">
@@ -24521,8 +24521,8 @@
       <c r="N454" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R454" s="0"/>
-      <c r="S454" s="0"/>
+      <c r="R454" s="23"/>
+      <c r="S454" s="23"/>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="21" t="s">
@@ -24567,8 +24567,8 @@
       <c r="N455" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R455" s="0"/>
-      <c r="S455" s="0"/>
+      <c r="R455" s="23"/>
+      <c r="S455" s="23"/>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="21" t="s">
@@ -24613,8 +24613,8 @@
       <c r="N456" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R456" s="0"/>
-      <c r="S456" s="0"/>
+      <c r="R456" s="23"/>
+      <c r="S456" s="23"/>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="21" t="s">
@@ -24659,8 +24659,8 @@
       <c r="N457" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R457" s="0"/>
-      <c r="S457" s="0"/>
+      <c r="R457" s="23"/>
+      <c r="S457" s="23"/>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="21" t="s">
@@ -24705,12 +24705,12 @@
       <c r="N458" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="R458" s="0"/>
-      <c r="S458" s="0"/>
+      <c r="R458" s="23"/>
+      <c r="S458" s="23"/>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R459" s="0"/>
-      <c r="S459" s="0"/>
+      <c r="R459" s="23"/>
+      <c r="S459" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -24734,8 +24734,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A455" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C470" activeCellId="0" sqref="C470"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E297" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D461" activeCellId="0" sqref="D461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32351,7 +32351,7 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A450" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F426" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A429" activeCellId="0" sqref="A429"/>
     </sheetView>
   </sheetViews>

--- a/DS PORTAL.xlsx
+++ b/DS PORTAL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PERSONAL INFORMATION" sheetId="1" r:id="rId1"/>
@@ -5254,7 +5254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5406,6 +5406,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -5614,7 +5620,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -5932,6 +5938,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Good" xfId="2"/>
@@ -6192,8 +6199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N616"/>
   <sheetViews>
-    <sheetView topLeftCell="A595" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A594" sqref="A594:XFD594"/>
+    <sheetView topLeftCell="B592" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I596" sqref="I596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -32715,7 +32722,7 @@
   <dimension ref="A1:E618"/>
   <sheetViews>
     <sheetView topLeftCell="A592" workbookViewId="0">
-      <selection activeCell="A596" sqref="A596:XFD596"/>
+      <selection activeCell="A596" sqref="A596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -42939,10 +42946,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K618"/>
+  <dimension ref="A1:K643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A605" workbookViewId="0">
-      <selection activeCell="A596" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C595" workbookViewId="0">
+      <selection activeCell="C598" sqref="C598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -49423,7 +49430,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="72">
-        <f t="shared" ref="I203:I234" si="3">SUM(D203:H203)</f>
+        <f t="shared" ref="I203:I224" si="3">SUM(D203:H203)</f>
         <v>0</v>
       </c>
       <c r="J203" s="35" t="s">
@@ -54423,7 +54430,7 @@
         <v>4</v>
       </c>
       <c r="I358" s="49">
-        <f t="shared" ref="I358:I389" si="9">SUM(D358:H358)</f>
+        <f t="shared" ref="I358:I387" si="9">SUM(D358:H358)</f>
         <v>20</v>
       </c>
       <c r="J358" s="49" t="s">
@@ -61946,7 +61953,7 @@
         <v>1655</v>
       </c>
       <c r="C598" s="108" t="s">
-        <v>1723</v>
+        <v>1463</v>
       </c>
       <c r="D598" s="108">
         <v>5</v>
@@ -62105,14 +62112,14 @@
       <c r="B603" s="108" t="s">
         <v>1669</v>
       </c>
-      <c r="C603" s="108" t="s">
-        <v>1463</v>
+      <c r="C603" s="111" t="s">
+        <v>1725</v>
       </c>
       <c r="D603" s="108">
         <v>6</v>
       </c>
       <c r="E603" s="108">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F603" s="108">
         <v>6</v>
@@ -62124,7 +62131,7 @@
         <v>0</v>
       </c>
       <c r="I603" s="109">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J603" s="108" t="s">
         <v>1529</v>
@@ -62610,7 +62617,77 @@
         <v>1529</v>
       </c>
     </row>
+    <row r="622" spans="1:10">
+      <c r="A622" s="108"/>
+    </row>
+    <row r="623" spans="1:10">
+      <c r="A623" s="108"/>
+    </row>
+    <row r="624" spans="1:10">
+      <c r="A624" s="108"/>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" s="108"/>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626" s="108"/>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" s="108"/>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" s="108"/>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629" s="108"/>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" s="108"/>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" s="108"/>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" s="108"/>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" s="108"/>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" s="108"/>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" s="108"/>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" s="108"/>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" s="108"/>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638" s="108"/>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" s="108"/>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" s="108"/>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" s="108"/>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" s="108"/>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" s="108"/>
+    </row>
   </sheetData>
+  <sortState ref="A597:J618">
+    <sortCondition ref="B597:B618"/>
+  </sortState>
+  <dataConsolidate/>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="F171:F177 F179:F182">
       <formula1>AND(ISNUMBER(F171),(NOT(OR(NOT(ISERROR(DATEVALUE(F171))), AND(ISNUMBER(F171), LEFT(CELL("format", F171))="D")))))</formula1>
@@ -62652,6 +62729,6 @@
     <hyperlink ref="B606" r:id="rId32" display="http://ljdinesh442gmail.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId33"/>
 </worksheet>
 </file>
--- a/DS PORTAL.xlsx
+++ b/DS PORTAL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PERSONAL INFORMATION" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12094" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12093" uniqueCount="1740">
   <si>
     <t>Name</t>
   </si>
@@ -4990,9 +4990,6 @@
   </si>
   <si>
     <t>dineshvasa1524@gmail.com</t>
-  </si>
-  <si>
-    <t>89036 06726</t>
   </si>
   <si>
     <t>JEPPIAAR COLLEGE</t>
@@ -6199,8 +6196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N616"/>
   <sheetViews>
-    <sheetView topLeftCell="B592" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I596" sqref="I596"/>
+    <sheetView tabSelected="1" topLeftCell="B592" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D622" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -31788,11 +31785,11 @@
       <c r="B596" s="89" t="s">
         <v>1655</v>
       </c>
-      <c r="C596" s="89" t="s">
+      <c r="C596" s="89">
+        <v>8903606726</v>
+      </c>
+      <c r="D596" s="89" t="s">
         <v>1656</v>
-      </c>
-      <c r="D596" s="89" t="s">
-        <v>1657</v>
       </c>
       <c r="E596" s="89" t="s">
         <v>29</v>
@@ -31827,10 +31824,10 @@
     </row>
     <row r="597" spans="1:14" ht="12.75">
       <c r="A597" s="89" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B597" s="89" t="s">
         <v>1658</v>
-      </c>
-      <c r="B597" s="89" t="s">
-        <v>1659</v>
       </c>
       <c r="C597" s="89">
         <v>8680024905</v>
@@ -31839,7 +31836,7 @@
         <v>167</v>
       </c>
       <c r="E597" s="89" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="F597" s="90">
         <v>45776</v>
@@ -31871,10 +31868,10 @@
     </row>
     <row r="598" spans="1:14" ht="12.75">
       <c r="A598" s="89" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B598" s="89" t="s">
         <v>1661</v>
-      </c>
-      <c r="B598" s="89" t="s">
-        <v>1662</v>
       </c>
       <c r="C598" s="89">
         <v>6382595163</v>
@@ -31915,16 +31912,16 @@
     </row>
     <row r="599" spans="1:14" ht="12.75">
       <c r="A599" s="89" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B599" s="89" t="s">
         <v>1663</v>
-      </c>
-      <c r="B599" s="89" t="s">
-        <v>1664</v>
       </c>
       <c r="C599" s="89">
         <v>936075806</v>
       </c>
       <c r="D599" s="89" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="E599" s="89" t="s">
         <v>133</v>
@@ -31959,10 +31956,10 @@
     </row>
     <row r="600" spans="1:14" ht="12.75">
       <c r="A600" s="89" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B600" s="89" t="s">
         <v>1666</v>
-      </c>
-      <c r="B600" s="89" t="s">
-        <v>1667</v>
       </c>
       <c r="C600" s="89">
         <v>8754257575</v>
@@ -32003,16 +32000,16 @@
     </row>
     <row r="601" spans="1:14" ht="12.75">
       <c r="A601" s="89" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B601" s="89" t="s">
         <v>1668</v>
-      </c>
-      <c r="B601" s="89" t="s">
-        <v>1669</v>
       </c>
       <c r="C601" s="89">
         <v>7550329575</v>
       </c>
       <c r="D601" s="89" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E601" s="89" t="s">
         <v>17</v>
@@ -32047,16 +32044,16 @@
     </row>
     <row r="602" spans="1:14" ht="12.75">
       <c r="A602" s="89" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B602" s="89" t="s">
         <v>1671</v>
-      </c>
-      <c r="B602" s="89" t="s">
-        <v>1672</v>
       </c>
       <c r="C602" s="89">
         <v>6383490172</v>
       </c>
       <c r="D602" s="89" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="E602" s="89" t="s">
         <v>133</v>
@@ -32091,16 +32088,16 @@
     </row>
     <row r="603" spans="1:14" ht="12.75">
       <c r="A603" s="89" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B603" s="89" t="s">
         <v>1673</v>
-      </c>
-      <c r="B603" s="89" t="s">
-        <v>1674</v>
       </c>
       <c r="C603" s="89">
         <v>6382486978</v>
       </c>
       <c r="D603" s="89" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="E603" s="89" t="s">
         <v>133</v>
@@ -32135,10 +32132,10 @@
     </row>
     <row r="604" spans="1:14" ht="12.75">
       <c r="A604" s="89" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B604" s="95" t="s">
         <v>1675</v>
-      </c>
-      <c r="B604" s="95" t="s">
-        <v>1676</v>
       </c>
       <c r="C604" s="91">
         <v>6381702252</v>
@@ -32179,19 +32176,19 @@
     </row>
     <row r="605" spans="1:14" ht="12.75">
       <c r="A605" s="89" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B605" s="89" t="s">
         <v>1677</v>
-      </c>
-      <c r="B605" s="89" t="s">
-        <v>1678</v>
       </c>
       <c r="C605" s="89">
         <v>8072321006</v>
       </c>
       <c r="D605" s="89" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E605" s="89" t="s">
         <v>1679</v>
-      </c>
-      <c r="E605" s="89" t="s">
-        <v>1680</v>
       </c>
       <c r="F605" s="90">
         <v>45766</v>
@@ -32223,16 +32220,16 @@
     </row>
     <row r="606" spans="1:14" ht="12.75">
       <c r="A606" s="89" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B606" s="89" t="s">
         <v>1681</v>
-      </c>
-      <c r="B606" s="89" t="s">
-        <v>1682</v>
       </c>
       <c r="C606" s="89">
         <v>7094496937</v>
       </c>
       <c r="D606" s="89" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="E606" s="89" t="s">
         <v>133</v>
@@ -32267,16 +32264,16 @@
     </row>
     <row r="607" spans="1:14" ht="12.75">
       <c r="A607" s="89" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B607" s="89" t="s">
         <v>1683</v>
-      </c>
-      <c r="B607" s="89" t="s">
-        <v>1684</v>
       </c>
       <c r="C607" s="89">
         <v>8248969475</v>
       </c>
       <c r="D607" s="89" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E607" s="89" t="s">
         <v>437</v>
@@ -32311,16 +32308,16 @@
     </row>
     <row r="608" spans="1:14" ht="12.75">
       <c r="A608" s="89" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B608" s="89" t="s">
         <v>1686</v>
-      </c>
-      <c r="B608" s="89" t="s">
-        <v>1687</v>
       </c>
       <c r="C608" s="89">
         <v>6302836463</v>
       </c>
       <c r="D608" s="89" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E608" s="89" t="s">
         <v>433</v>
@@ -32355,10 +32352,10 @@
     </row>
     <row r="609" spans="1:14" ht="12.75">
       <c r="A609" s="89" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B609" s="89" t="s">
         <v>1689</v>
-      </c>
-      <c r="B609" s="89" t="s">
-        <v>1690</v>
       </c>
       <c r="C609" s="89">
         <v>9344523665</v>
@@ -32399,10 +32396,10 @@
     </row>
     <row r="610" spans="1:14" ht="12.75">
       <c r="A610" s="89" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B610" s="89" t="s">
         <v>1691</v>
-      </c>
-      <c r="B610" s="89" t="s">
-        <v>1692</v>
       </c>
       <c r="C610" s="89">
         <v>6389339907</v>
@@ -32443,16 +32440,16 @@
     </row>
     <row r="611" spans="1:14" ht="12.75">
       <c r="A611" s="89" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B611" s="89" t="s">
         <v>1693</v>
-      </c>
-      <c r="B611" s="89" t="s">
-        <v>1694</v>
       </c>
       <c r="C611" s="89">
         <v>9014578712</v>
       </c>
       <c r="D611" s="89" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E611" s="89" t="s">
         <v>433</v>
@@ -32487,10 +32484,10 @@
     </row>
     <row r="612" spans="1:14" ht="12.75">
       <c r="A612" s="89" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B612" s="89" t="s">
         <v>1695</v>
-      </c>
-      <c r="B612" s="89" t="s">
-        <v>1696</v>
       </c>
       <c r="C612" s="89">
         <v>8939158099</v>
@@ -32531,16 +32528,16 @@
     </row>
     <row r="613" spans="1:14" ht="12.75">
       <c r="A613" s="89" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B613" s="89" t="s">
         <v>1697</v>
-      </c>
-      <c r="B613" s="89" t="s">
-        <v>1698</v>
       </c>
       <c r="C613" s="89">
         <v>9841674668</v>
       </c>
       <c r="D613" s="89" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E613" s="89" t="s">
         <v>386</v>
@@ -32575,16 +32572,16 @@
     </row>
     <row r="614" spans="1:14" ht="12.75">
       <c r="A614" s="89" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B614" s="89" t="s">
         <v>1700</v>
-      </c>
-      <c r="B614" s="89" t="s">
-        <v>1701</v>
       </c>
       <c r="C614" s="89">
         <v>9342177684</v>
       </c>
       <c r="D614" s="89" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E614" s="89" t="s">
         <v>386</v>
@@ -32619,16 +32616,16 @@
     </row>
     <row r="615" spans="1:14" ht="12.75">
       <c r="A615" s="89" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B615" s="89" t="s">
         <v>1702</v>
-      </c>
-      <c r="B615" s="89" t="s">
-        <v>1703</v>
       </c>
       <c r="C615" s="89">
         <v>9790903598</v>
       </c>
       <c r="D615" s="89" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E615" s="89" t="s">
         <v>17</v>
@@ -32666,13 +32663,13 @@
         <v>390</v>
       </c>
       <c r="B616" s="89" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C616" s="89">
         <v>8248193485</v>
       </c>
       <c r="D616" s="89" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E616" s="89" t="s">
         <v>29</v>
@@ -42594,7 +42591,7 @@
     </row>
     <row r="599" spans="1:5">
       <c r="A599" s="89" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B599" s="106">
         <v>77</v>
@@ -42611,7 +42608,7 @@
     </row>
     <row r="600" spans="1:5">
       <c r="A600" s="89" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B600" s="106">
         <v>78</v>
@@ -42628,7 +42625,7 @@
     </row>
     <row r="601" spans="1:5">
       <c r="A601" s="89" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B601" s="106">
         <v>78</v>
@@ -42645,7 +42642,7 @@
     </row>
     <row r="602" spans="1:5">
       <c r="A602" s="89" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B602" s="106">
         <v>78</v>
@@ -42662,7 +42659,7 @@
     </row>
     <row r="603" spans="1:5">
       <c r="A603" s="89" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B603" s="106">
         <v>77</v>
@@ -42679,7 +42676,7 @@
     </row>
     <row r="604" spans="1:5">
       <c r="A604" s="89" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B604" s="106">
         <v>88</v>
@@ -42696,7 +42693,7 @@
     </row>
     <row r="605" spans="1:5">
       <c r="A605" s="89" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B605" s="106">
         <v>89</v>
@@ -42713,7 +42710,7 @@
     </row>
     <row r="606" spans="1:5">
       <c r="A606" s="95" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B606" s="106">
         <v>89</v>
@@ -42730,7 +42727,7 @@
     </row>
     <row r="607" spans="1:5">
       <c r="A607" s="89" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B607" s="106">
         <v>79</v>
@@ -42747,7 +42744,7 @@
     </row>
     <row r="608" spans="1:5">
       <c r="A608" s="89" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B608" s="106">
         <v>75</v>
@@ -42764,7 +42761,7 @@
     </row>
     <row r="609" spans="1:5">
       <c r="A609" s="89" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B609" s="106">
         <v>90</v>
@@ -42781,7 +42778,7 @@
     </row>
     <row r="610" spans="1:5">
       <c r="A610" s="89" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B610" s="106">
         <v>77</v>
@@ -42798,7 +42795,7 @@
     </row>
     <row r="611" spans="1:5">
       <c r="A611" s="89" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B611" s="106">
         <v>89</v>
@@ -42815,7 +42812,7 @@
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="89" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B612" s="106">
         <v>72</v>
@@ -42832,7 +42829,7 @@
     </row>
     <row r="613" spans="1:5">
       <c r="A613" s="89" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B613" s="106">
         <v>86</v>
@@ -42849,7 +42846,7 @@
     </row>
     <row r="614" spans="1:5">
       <c r="A614" s="89" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B614" s="106">
         <v>72</v>
@@ -42866,7 +42863,7 @@
     </row>
     <row r="615" spans="1:5">
       <c r="A615" s="89" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B615" s="106">
         <v>88</v>
@@ -42883,7 +42880,7 @@
     </row>
     <row r="616" spans="1:5">
       <c r="A616" s="89" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B616" s="106">
         <v>76</v>
@@ -42900,7 +42897,7 @@
     </row>
     <row r="617" spans="1:5">
       <c r="A617" s="89" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B617" s="106">
         <v>81</v>
@@ -42917,7 +42914,7 @@
     </row>
     <row r="618" spans="1:5">
       <c r="A618" s="89" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B618" s="106">
         <v>75</v>
@@ -42948,7 +42945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C595" workbookViewId="0">
+    <sheetView topLeftCell="A595" workbookViewId="0">
       <selection activeCell="C598" sqref="C598"/>
     </sheetView>
   </sheetViews>
@@ -60349,7 +60346,7 @@
         <v>1531</v>
       </c>
       <c r="C546" s="89" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D546" s="89">
         <v>7</v>
@@ -60413,7 +60410,7 @@
         <v>1537</v>
       </c>
       <c r="C548" s="89" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D548" s="89">
         <v>6</v>
@@ -60445,7 +60442,7 @@
         <v>1539</v>
       </c>
       <c r="C549" s="89" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D549" s="89">
         <v>7</v>
@@ -60477,7 +60474,7 @@
         <v>1541</v>
       </c>
       <c r="C550" s="89" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D550" s="89">
         <v>8</v>
@@ -60509,7 +60506,7 @@
         <v>1542</v>
       </c>
       <c r="C551" s="89" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D551" s="89">
         <v>7</v>
@@ -60541,7 +60538,7 @@
         <v>1545</v>
       </c>
       <c r="C552" s="89" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D552" s="89">
         <v>8</v>
@@ -60573,7 +60570,7 @@
         <v>1548</v>
       </c>
       <c r="C553" s="89" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D553" s="89">
         <v>5</v>
@@ -60605,7 +60602,7 @@
         <v>1551</v>
       </c>
       <c r="C554" s="89" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D554" s="89">
         <v>5</v>
@@ -60669,7 +60666,7 @@
         <v>1556</v>
       </c>
       <c r="C556" s="89" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D556" s="89">
         <v>6</v>
@@ -60701,7 +60698,7 @@
         <v>1558</v>
       </c>
       <c r="C557" s="89" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="D557" s="89">
         <v>6</v>
@@ -60797,7 +60794,7 @@
         <v>1566</v>
       </c>
       <c r="C560" s="89" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D560" s="89">
         <v>7</v>
@@ -60861,7 +60858,7 @@
         <v>1571</v>
       </c>
       <c r="C562" s="89" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D562" s="89">
         <v>8</v>
@@ -60893,7 +60890,7 @@
         <v>1573</v>
       </c>
       <c r="C563" s="89" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D563" s="89">
         <v>6</v>
@@ -60925,7 +60922,7 @@
         <v>1576</v>
       </c>
       <c r="C564" s="89" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D564" s="89">
         <v>8</v>
@@ -60989,7 +60986,7 @@
         <v>1581</v>
       </c>
       <c r="C566" s="89" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D566" s="89">
         <v>7</v>
@@ -61021,7 +61018,7 @@
         <v>1584</v>
       </c>
       <c r="C567" s="89" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D567" s="89">
         <v>7</v>
@@ -61053,7 +61050,7 @@
         <v>1586</v>
       </c>
       <c r="C568" s="89" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D568" s="89">
         <v>9</v>
@@ -61085,7 +61082,7 @@
         <v>1588</v>
       </c>
       <c r="C569" s="89" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D569" s="89">
         <v>8</v>
@@ -61181,7 +61178,7 @@
         <v>1596</v>
       </c>
       <c r="C572" s="89" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D572" s="89">
         <v>7</v>
@@ -61245,7 +61242,7 @@
         <v>1600</v>
       </c>
       <c r="C574" s="89" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D574" s="89">
         <v>7</v>
@@ -61277,7 +61274,7 @@
         <v>1602</v>
       </c>
       <c r="C575" s="89" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D575" s="89">
         <v>8</v>
@@ -61341,7 +61338,7 @@
         <v>1607</v>
       </c>
       <c r="C577" s="89" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D577" s="89">
         <v>5</v>
@@ -61373,7 +61370,7 @@
         <v>1611</v>
       </c>
       <c r="C578" s="89" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D578" s="89">
         <v>6</v>
@@ -61437,7 +61434,7 @@
         <v>1615</v>
       </c>
       <c r="C580" s="89" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D580" s="89">
         <v>9</v>
@@ -61469,7 +61466,7 @@
         <v>1618</v>
       </c>
       <c r="C581" s="89" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D581" s="89">
         <v>6</v>
@@ -61597,7 +61594,7 @@
         <v>1627</v>
       </c>
       <c r="C585" s="89" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D585" s="89">
         <v>8</v>
@@ -61693,7 +61690,7 @@
         <v>1635</v>
       </c>
       <c r="C588" s="89" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D588" s="89">
         <v>6</v>
@@ -61757,7 +61754,7 @@
         <v>1642</v>
       </c>
       <c r="C590" s="89" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D590" s="89">
         <v>8</v>
@@ -61821,7 +61818,7 @@
         <v>1646</v>
       </c>
       <c r="C592" s="89" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D592" s="89">
         <v>5</v>
@@ -61853,7 +61850,7 @@
         <v>1649</v>
       </c>
       <c r="C593" s="89" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D593" s="89">
         <v>7</v>
@@ -61921,7 +61918,7 @@
         <v>1651</v>
       </c>
       <c r="C597" s="108" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D597" s="108">
         <v>5</v>
@@ -61979,13 +61976,13 @@
     </row>
     <row r="599" spans="1:10">
       <c r="A599" s="108" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B599" s="108" t="s">
         <v>1658</v>
       </c>
-      <c r="B599" s="108" t="s">
-        <v>1659</v>
-      </c>
       <c r="C599" s="108" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D599" s="108">
         <v>6</v>
@@ -62011,13 +62008,13 @@
     </row>
     <row r="600" spans="1:10">
       <c r="A600" s="108" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B600" s="108" t="s">
         <v>1661</v>
       </c>
-      <c r="B600" s="108" t="s">
-        <v>1662</v>
-      </c>
       <c r="C600" s="108" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D600" s="108">
         <v>9</v>
@@ -62043,13 +62040,13 @@
     </row>
     <row r="601" spans="1:10">
       <c r="A601" s="108" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B601" s="108" t="s">
         <v>1663</v>
       </c>
-      <c r="B601" s="108" t="s">
-        <v>1664</v>
-      </c>
       <c r="C601" s="108" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D601" s="108">
         <v>8</v>
@@ -62075,13 +62072,13 @@
     </row>
     <row r="602" spans="1:10">
       <c r="A602" s="108" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B602" s="108" t="s">
         <v>1666</v>
       </c>
-      <c r="B602" s="108" t="s">
-        <v>1667</v>
-      </c>
       <c r="C602" s="108" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D602" s="108">
         <v>7</v>
@@ -62107,13 +62104,13 @@
     </row>
     <row r="603" spans="1:10">
       <c r="A603" s="108" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B603" s="108" t="s">
         <v>1668</v>
       </c>
-      <c r="B603" s="108" t="s">
-        <v>1669</v>
-      </c>
       <c r="C603" s="111" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D603" s="108">
         <v>6</v>
@@ -62139,13 +62136,13 @@
     </row>
     <row r="604" spans="1:10">
       <c r="A604" s="108" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B604" s="108" t="s">
         <v>1671</v>
       </c>
-      <c r="B604" s="108" t="s">
-        <v>1672</v>
-      </c>
       <c r="C604" s="108" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D604" s="108">
         <v>6</v>
@@ -62171,13 +62168,13 @@
     </row>
     <row r="605" spans="1:10">
       <c r="A605" s="108" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B605" s="108" t="s">
         <v>1673</v>
       </c>
-      <c r="B605" s="108" t="s">
-        <v>1674</v>
-      </c>
       <c r="C605" s="108" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D605" s="108">
         <v>7</v>
@@ -62203,13 +62200,13 @@
     </row>
     <row r="606" spans="1:10">
       <c r="A606" s="108" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B606" s="110" t="s">
         <v>1675</v>
       </c>
-      <c r="B606" s="110" t="s">
-        <v>1676</v>
-      </c>
       <c r="C606" s="108" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D606" s="108">
         <v>7</v>
@@ -62235,13 +62232,13 @@
     </row>
     <row r="607" spans="1:10">
       <c r="A607" s="108" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B607" s="108" t="s">
         <v>1677</v>
       </c>
-      <c r="B607" s="108" t="s">
-        <v>1678</v>
-      </c>
       <c r="C607" s="108" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D607" s="108">
         <v>5</v>
@@ -62267,13 +62264,13 @@
     </row>
     <row r="608" spans="1:10">
       <c r="A608" s="108" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B608" s="108" t="s">
         <v>1681</v>
       </c>
-      <c r="B608" s="108" t="s">
-        <v>1682</v>
-      </c>
       <c r="C608" s="108" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D608" s="108">
         <v>8</v>
@@ -62299,13 +62296,13 @@
     </row>
     <row r="609" spans="1:10">
       <c r="A609" s="108" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B609" s="108" t="s">
         <v>1683</v>
       </c>
-      <c r="B609" s="108" t="s">
-        <v>1684</v>
-      </c>
       <c r="C609" s="108" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D609" s="108">
         <v>8</v>
@@ -62331,13 +62328,13 @@
     </row>
     <row r="610" spans="1:10">
       <c r="A610" s="108" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B610" s="108" t="s">
         <v>1686</v>
       </c>
-      <c r="B610" s="108" t="s">
-        <v>1687</v>
-      </c>
       <c r="C610" s="108" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D610" s="108">
         <v>5</v>
@@ -62363,13 +62360,13 @@
     </row>
     <row r="611" spans="1:10">
       <c r="A611" s="108" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B611" s="108" t="s">
         <v>1689</v>
       </c>
-      <c r="B611" s="108" t="s">
-        <v>1690</v>
-      </c>
       <c r="C611" s="108" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D611" s="108">
         <v>7</v>
@@ -62395,13 +62392,13 @@
     </row>
     <row r="612" spans="1:10">
       <c r="A612" s="108" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B612" s="108" t="s">
         <v>1691</v>
       </c>
-      <c r="B612" s="108" t="s">
-        <v>1692</v>
-      </c>
       <c r="C612" s="108" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D612" s="108">
         <v>6</v>
@@ -62427,13 +62424,13 @@
     </row>
     <row r="613" spans="1:10">
       <c r="A613" s="108" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B613" s="108" t="s">
         <v>1693</v>
       </c>
-      <c r="B613" s="108" t="s">
-        <v>1694</v>
-      </c>
       <c r="C613" s="108" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D613" s="108">
         <v>7</v>
@@ -62459,10 +62456,10 @@
     </row>
     <row r="614" spans="1:10">
       <c r="A614" s="108" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B614" s="108" t="s">
         <v>1695</v>
-      </c>
-      <c r="B614" s="108" t="s">
-        <v>1696</v>
       </c>
       <c r="C614" s="108" t="s">
         <v>1463</v>
@@ -62491,13 +62488,13 @@
     </row>
     <row r="615" spans="1:10">
       <c r="A615" s="108" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B615" s="108" t="s">
         <v>1697</v>
       </c>
-      <c r="B615" s="108" t="s">
-        <v>1698</v>
-      </c>
       <c r="C615" s="108" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D615" s="108">
         <v>8</v>
@@ -62523,13 +62520,13 @@
     </row>
     <row r="616" spans="1:10">
       <c r="A616" s="108" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B616" s="108" t="s">
         <v>1700</v>
       </c>
-      <c r="B616" s="108" t="s">
-        <v>1701</v>
-      </c>
       <c r="C616" s="108" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D616" s="108">
         <v>7</v>
@@ -62555,13 +62552,13 @@
     </row>
     <row r="617" spans="1:10">
       <c r="A617" s="108" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B617" s="108" t="s">
         <v>1702</v>
       </c>
-      <c r="B617" s="108" t="s">
-        <v>1703</v>
-      </c>
       <c r="C617" s="108" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D617" s="108">
         <v>5</v>
@@ -62590,10 +62587,10 @@
         <v>390</v>
       </c>
       <c r="B618" s="108" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C618" s="108" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D618" s="108">
         <v>7</v>

--- a/DS PORTAL.xlsx
+++ b/DS PORTAL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PERSONAL INFORMATION" sheetId="1" r:id="rId1"/>
@@ -6196,7 +6196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N616"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B592" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B586" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D622" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -32718,8 +32718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E618"/>
   <sheetViews>
-    <sheetView topLeftCell="A592" workbookViewId="0">
-      <selection activeCell="A596" sqref="A596"/>
+    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
+      <selection activeCell="B542" sqref="B542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -42945,8 +42945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K643"/>
   <sheetViews>
-    <sheetView topLeftCell="A595" workbookViewId="0">
-      <selection activeCell="C598" sqref="C598"/>
+    <sheetView topLeftCell="A520" workbookViewId="0">
+      <selection activeCell="I541" sqref="I541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -60262,15 +60262,23 @@
       <c r="C541" s="60" t="s">
         <v>1482</v>
       </c>
-      <c r="D541" s="87"/>
-      <c r="E541" s="87"/>
-      <c r="F541" s="87"/>
-      <c r="G541" s="87"/>
+      <c r="D541" s="87">
+        <v>7</v>
+      </c>
+      <c r="E541" s="87">
+        <v>7</v>
+      </c>
+      <c r="F541" s="87">
+        <v>9</v>
+      </c>
+      <c r="G541" s="87">
+        <v>7</v>
+      </c>
       <c r="H541" s="61">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="I541" s="61">
-        <v>7</v>
+        <v>37.6</v>
       </c>
       <c r="J541" s="56" t="s">
         <v>1213</v>
